--- a/pred_ohlcv/54_21/2020-01-12 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-116529.97337333</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-114690.48027333</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-123801.76787333</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-118768.16317333</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-129586.97307333</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-217671.31562934</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-220542.97862934</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-223191.40562934</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-229728.32672934</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-218240.31592934</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-218204.74612934</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-234291.69778416</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-237059.74638416</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-236441.08408416</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-269920.8043841601</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-269972.8043841601</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-271203.83398416</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-271662.48918416</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-271629.58838416</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-273990.46048416</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-277795.13668416</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-256729.72793661</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-256749.48673661</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-273241.98303661</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-276302.20053661</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-286224.50670898</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-286178.50670898</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-281167.41720248</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-288967.0416024801</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-303344.12260248</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-304317.57060248</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-295619.5560024799</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-296087.5560024799</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-304531.4791024799</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-321500.1606024799</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-311248.1982024799</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-311246.1737024799</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-311671.2587024799</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-310119.5755024799</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-308688.5208024799</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-307709.6529024799</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-305125.3865024798</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-305122.3865024798</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-305257.3864024798</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-300511.6613024799</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-305511.6613024799</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-309571.6613024799</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-309561.6613024799</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-309565.0856024799</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-311413.2924024799</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-311383.0269024799</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-315410.9114024799</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-323933.0050024799</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-333211.1667024799</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-335367.6754024799</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-338058.7335024799</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-337548.6965024799</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-338355.5858024799</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-337560.4575024798</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-337555.9575024798</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-330458.5985024798</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-322112.7059024798</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-319758.1860024798</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-320149.8093024798</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-318560.8744024798</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-316168.7016024798</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-321554.4389024798</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-330259.2611024798</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-330254.2611024798</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-331954.2611024798</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-327262.2787024798</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-327086.9787875098</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-329497.2477875098</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-328851.4546875098</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-328980.4546875098</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-116529.97337333</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-114690.48027333</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-123801.76787333</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-118768.16317333</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-129586.97307333</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-217671.31562934</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-220542.97862934</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-223191.40562934</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-229728.32672934</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-218240.31592934</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-240542.74852934</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-234291.69778416</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-237059.74638416</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-236441.08408416</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-270248.39608416</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-269920.8043841601</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-269972.8043841601</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-271203.83398416</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-271662.48918416</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-271629.58838416</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-273990.46048416</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-277795.13668416</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-256729.72793661</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-256749.48673661</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-273241.98303661</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-276302.20053661</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-286224.50670898</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-286178.50670898</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-281167.41720248</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-288967.0416024801</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-303344.12260248</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-304317.57060248</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-295619.5560024799</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-296087.5560024799</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-304531.4791024799</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-321500.1606024799</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-311248.1982024799</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-311246.1737024799</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-311671.2587024799</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-310119.5755024799</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-308688.5208024799</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-307709.6529024799</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-305125.3865024798</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-305122.3865024798</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-305257.3864024798</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-300511.6613024799</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-305511.6613024799</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-309571.6613024799</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-309561.6613024799</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-309565.0856024799</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-311413.2924024799</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-311383.0269024799</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-315410.9114024799</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-323933.0050024799</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-333211.1667024799</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-335367.6754024799</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-338058.7335024799</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-337548.6965024799</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-338355.5858024799</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-337560.4575024798</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-337555.9575024798</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-334006.8318024799</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-333063.4024024798</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-333063.4024024798</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-330600.1131024798</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-330458.5985024798</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-318560.8744024798</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-316168.7016024798</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-321554.4389024798</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-330259.2611024798</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-330254.2611024798</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-331954.2611024798</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-327262.2787024798</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-327086.9787875098</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-329497.2477875098</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-328851.4546875098</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-328980.4546875098</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
